--- a/example_1_perfect/main_results.xlsx
+++ b/example_1_perfect/main_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Bills without sharing</t>
   </si>
@@ -53,6 +53,45 @@
   </si>
   <si>
     <t>total repartition</t>
+  </si>
+  <si>
+    <t>post of consumption</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cold_sources</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>washing_utilities</t>
+  </si>
+  <si>
+    <t>post of consumption values</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>wh</t>
+  </si>
+  <si>
+    <t>electric heating</t>
   </si>
 </sst>
 </file>
@@ -384,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +460,20 @@
       <c r="AA1" t="s">
         <v>12</v>
       </c>
+      <c r="AE1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -483,426 +534,723 @@
       <c r="AC2" t="s">
         <v>3</v>
       </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:48">
       <c r="A3">
-        <v>1623.788680262517</v>
+        <v>1775.717523266968</v>
       </c>
       <c r="B3">
-        <v>1623.788680262517</v>
+        <v>1775.717523266968</v>
       </c>
       <c r="C3">
-        <v>1623.788680262517</v>
+        <v>1775.717523266968</v>
       </c>
       <c r="E3">
-        <v>1460.751610578214</v>
+        <v>1591.535021805737</v>
       </c>
       <c r="F3">
-        <v>1615.202758788196</v>
+        <v>1767.131601792677</v>
       </c>
       <c r="G3">
-        <v>1551.769284403259</v>
+        <v>1708.293659455839</v>
       </c>
       <c r="I3">
         <v>332.0151457257931</v>
       </c>
       <c r="K3">
-        <v>1307.930959953528</v>
+        <v>1304.147053042469</v>
       </c>
       <c r="M3">
-        <v>0.7348428428576145</v>
+        <v>0.731993645343783</v>
       </c>
       <c r="O3">
-        <v>0.2162616772670249</v>
+        <v>0.207584540030699</v>
       </c>
       <c r="P3">
-        <v>0.2430410884639337</v>
+        <v>0.2341162778649111</v>
       </c>
       <c r="Q3">
-        <v>0.2276662112182616</v>
+        <v>0.2174892587608043</v>
       </c>
       <c r="S3">
-        <v>2200904.804221654</v>
+        <v>2224554.222415562</v>
       </c>
       <c r="U3">
         <v>8300378.643144826</v>
       </c>
       <c r="W3">
-        <v>4276801.715558183</v>
+        <v>4694499.632896135</v>
       </c>
       <c r="X3">
-        <v>4276801.715558183</v>
+        <v>4694499.632896135</v>
       </c>
       <c r="Y3">
-        <v>4276801.715558183</v>
+        <v>4694499.632896135</v>
       </c>
       <c r="AA3">
-        <v>924908.3123451024</v>
+        <v>974505.5469690296</v>
       </c>
       <c r="AB3">
-        <v>1039438.54409368</v>
+        <v>1099058.780491835</v>
       </c>
       <c r="AC3">
-        <v>973683.2427128931</v>
+        <v>1021003.245411448</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3">
+        <v>680757.6123010902</v>
+      </c>
+      <c r="AH3">
+        <v>254445.154786858</v>
+      </c>
+      <c r="AI3">
+        <v>98537.83515447679</v>
+      </c>
+      <c r="AJ3">
+        <v>42085.43481712081</v>
+      </c>
+      <c r="AK3">
+        <v>337515.6827737606</v>
+      </c>
+      <c r="AL3">
+        <v>168823.6502784427</v>
+      </c>
+      <c r="AM3">
+        <v>660840.4424076303</v>
+      </c>
+      <c r="AN3">
+        <v>321614.1457080135</v>
+      </c>
+      <c r="AP3">
+        <v>2090250</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:48">
       <c r="A4">
-        <v>1504.558303810104</v>
+        <v>1247.631254857104</v>
       </c>
       <c r="B4">
-        <v>1504.558303810104</v>
+        <v>1247.631254857104</v>
       </c>
       <c r="C4">
-        <v>1504.558303810104</v>
+        <v>1247.631254857104</v>
       </c>
       <c r="E4">
-        <v>1290.76609740337</v>
+        <v>1011.650745787706</v>
       </c>
       <c r="F4">
-        <v>1495.352669925428</v>
+        <v>1238.425620972409</v>
       </c>
       <c r="G4">
-        <v>1406.964548473182</v>
+        <v>1140.358373449503</v>
       </c>
       <c r="I4">
         <v>372.2724770561175</v>
       </c>
       <c r="K4">
-        <v>1439.116164307318</v>
+        <v>1446.786926369508</v>
       </c>
       <c r="M4">
-        <v>0.7164400761558041</v>
+        <v>0.7215913850323603</v>
       </c>
       <c r="O4">
-        <v>0.2553113182948721</v>
+        <v>0.2888605499283085</v>
       </c>
       <c r="P4">
-        <v>0.2747091450239106</v>
+        <v>0.3175369541915007</v>
       </c>
       <c r="Q4">
-        <v>0.2537530321175837</v>
+        <v>0.292029377579365</v>
       </c>
       <c r="S4">
-        <v>2639038.881083072</v>
+        <v>2591096.618194153</v>
       </c>
       <c r="U4">
         <v>9306811.926402938</v>
       </c>
       <c r="W4">
-        <v>3533615.585944275</v>
+        <v>3020308.929505177</v>
       </c>
       <c r="X4">
-        <v>3533615.585944275</v>
+        <v>3020308.929505177</v>
       </c>
       <c r="Y4">
-        <v>3533615.585944275</v>
+        <v>3020308.929505177</v>
       </c>
       <c r="AA4">
-        <v>902172.0535947398</v>
+        <v>872448.0983302462</v>
       </c>
       <c r="AB4">
-        <v>970716.5164579169</v>
+        <v>959059.6981924659</v>
       </c>
       <c r="AC4">
-        <v>896665.669271312</v>
+        <v>882018.9367807952</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4">
+        <v>595924.8</v>
+      </c>
+      <c r="AH4">
+        <v>534579.5999999999</v>
+      </c>
+      <c r="AI4">
+        <v>403125.6</v>
+      </c>
+      <c r="AJ4">
+        <v>473234.4</v>
+      </c>
+      <c r="AK4">
+        <v>727378.7999999999</v>
+      </c>
+      <c r="AL4">
+        <v>368071.2</v>
+      </c>
+      <c r="AM4">
+        <v>359307.5999999999</v>
+      </c>
+      <c r="AN4">
+        <v>341780.4</v>
+      </c>
+      <c r="AP4">
+        <v>1508100</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:48">
       <c r="A5">
-        <v>1244.210377702643</v>
+        <v>1005.395098800498</v>
       </c>
       <c r="B5">
-        <v>1244.210377702643</v>
+        <v>1005.395098800498</v>
       </c>
       <c r="C5">
-        <v>1244.210377702643</v>
+        <v>1005.395098800498</v>
       </c>
       <c r="E5">
-        <v>1147.962253944714</v>
+        <v>927.6529023695532</v>
       </c>
       <c r="F5">
-        <v>1235.00474381801</v>
+        <v>996.189464915894</v>
       </c>
       <c r="G5">
-        <v>1205.133174319382</v>
+        <v>982.7245767411423</v>
       </c>
       <c r="I5">
         <v>339.5228556173055</v>
       </c>
       <c r="K5">
-        <v>1341.476188700433</v>
+        <v>1344.552144299398</v>
       </c>
       <c r="M5">
-        <v>0.7377657472141267</v>
+        <v>0.7400306577703025</v>
       </c>
       <c r="O5">
-        <v>0.209047497905527</v>
+        <v>0.212307756511479</v>
       </c>
       <c r="P5">
-        <v>0.2216190540015299</v>
+        <v>0.2269042818125444</v>
       </c>
       <c r="Q5">
-        <v>0.2136208126472726</v>
+        <v>0.2206982329077892</v>
       </c>
       <c r="S5">
-        <v>2225863.058663251</v>
+        <v>2206638.336169482</v>
       </c>
       <c r="U5">
         <v>8488071.390432637</v>
       </c>
       <c r="W5">
-        <v>3338431.482763973</v>
+        <v>2794666.819814052</v>
       </c>
       <c r="X5">
-        <v>3338431.482763973</v>
+        <v>2794666.819814052</v>
       </c>
       <c r="Y5">
-        <v>3338431.482763973</v>
+        <v>2794666.819814052</v>
       </c>
       <c r="AA5">
-        <v>697890.7484008471</v>
+        <v>593329.442711791</v>
       </c>
       <c r="AB5">
-        <v>739860.0270590766</v>
+        <v>634121.8676552549</v>
       </c>
       <c r="AC5">
-        <v>713158.4463152792</v>
+        <v>616778.0286989921</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG5">
+        <v>864673.2205950435</v>
+      </c>
+      <c r="AH5">
+        <v>558241.1747183191</v>
+      </c>
+      <c r="AI5">
+        <v>348509.0096595759</v>
+      </c>
+      <c r="AJ5">
+        <v>848921.5866806427</v>
+      </c>
+      <c r="AK5">
+        <v>580323.6705998686</v>
+      </c>
+      <c r="AL5">
+        <v>528253.1218184794</v>
+      </c>
+      <c r="AM5">
+        <v>846260.2220824958</v>
+      </c>
+      <c r="AN5">
+        <v>541011.941673442</v>
+      </c>
+      <c r="AP5">
+        <v>1502050</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:48">
       <c r="A6">
-        <v>1070.587727365452</v>
+        <v>1189.349142061597</v>
       </c>
       <c r="B6">
-        <v>1070.587727365452</v>
+        <v>1189.349142061597</v>
       </c>
       <c r="C6">
-        <v>1070.587727365452</v>
+        <v>1189.349142061597</v>
       </c>
       <c r="E6">
-        <v>866.2714432523051</v>
+        <v>1017.910840268744</v>
       </c>
       <c r="F6">
-        <v>1061.382093480836</v>
+        <v>1180.143508176892</v>
       </c>
       <c r="G6">
-        <v>995.5036683841295</v>
+        <v>1117.583244876497</v>
       </c>
       <c r="O6">
-        <v>0.2518345238575386</v>
+        <v>0.2439597903984636</v>
       </c>
       <c r="P6">
-        <v>0.2840538893308118</v>
+        <v>0.2756131855746355</v>
       </c>
       <c r="Q6">
-        <v>0.2624691205426409</v>
+        <v>0.258759576925543</v>
       </c>
       <c r="W6">
-        <v>2585180.058274105</v>
+        <v>3073542.421497763</v>
       </c>
       <c r="X6">
-        <v>2585180.058274105</v>
+        <v>3073542.421497763</v>
       </c>
       <c r="Y6">
-        <v>2585180.058274105</v>
+        <v>3073542.421497763</v>
       </c>
       <c r="AA6">
-        <v>651037.589061463</v>
+        <v>749820.7649293805</v>
       </c>
       <c r="AB6">
-        <v>734330.4501732142</v>
+        <v>847108.8177877776</v>
       </c>
       <c r="AC6">
-        <v>678529.9363395774</v>
+        <v>795308.5366494701</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG6">
+        <v>462894</v>
+      </c>
+      <c r="AH6">
+        <v>164943</v>
+      </c>
+      <c r="AI6">
+        <v>442444.375</v>
+      </c>
+      <c r="AJ6">
+        <v>185251</v>
+      </c>
+      <c r="AK6">
+        <v>25690</v>
+      </c>
+      <c r="AL6">
+        <v>30369</v>
+      </c>
+      <c r="AM6">
+        <v>76293</v>
+      </c>
+      <c r="AN6">
+        <v>23961</v>
+      </c>
+      <c r="AP6">
+        <v>1524050</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:48">
       <c r="A7">
-        <v>1041.209551331456</v>
+        <v>1155.419480542774</v>
       </c>
       <c r="B7">
-        <v>1041.209551331456</v>
+        <v>1155.419480542774</v>
       </c>
       <c r="C7">
-        <v>1041.209551331456</v>
+        <v>1155.419480542774</v>
       </c>
       <c r="E7">
-        <v>846.2711986385711</v>
+        <v>960.4647516058351</v>
       </c>
       <c r="F7">
-        <v>1032.353189257463</v>
+        <v>1146.563118468811</v>
       </c>
       <c r="G7">
-        <v>974.8183374061435</v>
+        <v>1076.338799033971</v>
       </c>
       <c r="O7">
-        <v>0.3134370972991175</v>
+        <v>0.2871261379896141</v>
       </c>
       <c r="P7">
-        <v>0.3313732787706107</v>
+        <v>0.3131426295012771</v>
       </c>
       <c r="Q7">
-        <v>0.3127101789999311</v>
+        <v>0.2899203927633634</v>
       </c>
       <c r="W7">
-        <v>2579747.223292459</v>
+        <v>3152058.153373629</v>
       </c>
       <c r="X7">
-        <v>2579747.223292459</v>
+        <v>3152058.153373629</v>
       </c>
       <c r="Y7">
-        <v>2579747.223292459</v>
+        <v>3152058.153373629</v>
       </c>
       <c r="AA7">
-        <v>808588.4814342466</v>
+        <v>905038.2842968449</v>
       </c>
       <c r="AB7">
-        <v>854859.2957818011</v>
+        <v>987043.7784883582</v>
       </c>
       <c r="AC7">
-        <v>806713.2159703601</v>
+        <v>913845.9378390446</v>
+      </c>
+      <c r="AP7">
+        <v>1481150</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:48">
       <c r="A8">
-        <v>1165.031316495851</v>
+        <v>1006.295777804084</v>
       </c>
       <c r="B8">
-        <v>1165.031316495851</v>
+        <v>1006.295777804084</v>
       </c>
       <c r="C8">
-        <v>1165.031316495851</v>
+        <v>1006.295777804084</v>
       </c>
       <c r="E8">
-        <v>1059.397146107447</v>
+        <v>928.3501368793872</v>
       </c>
       <c r="F8">
-        <v>1156.17495442199</v>
+        <v>997.4394157301768</v>
       </c>
       <c r="G8">
-        <v>1126.019138201354</v>
+        <v>980.554095375132</v>
       </c>
       <c r="O8">
-        <v>0.2090411641244709</v>
+        <v>0.2055551352795852</v>
       </c>
       <c r="P8">
-        <v>0.2259208608250006</v>
+        <v>0.2288215629826638</v>
       </c>
       <c r="Q8">
-        <v>0.2159279809679817</v>
+        <v>0.2173088567941888</v>
       </c>
       <c r="W8">
-        <v>3136804.750187503</v>
+        <v>2592066.972096922</v>
       </c>
       <c r="X8">
-        <v>3136804.750187503</v>
+        <v>2592066.972096922</v>
       </c>
       <c r="Y8">
-        <v>3136804.750187503</v>
+        <v>2592066.972096922</v>
       </c>
       <c r="AA8">
-        <v>655721.3166103656</v>
+        <v>532812.6771031277</v>
       </c>
       <c r="AB8">
-        <v>708669.6294023116</v>
+        <v>593120.8159109583</v>
       </c>
       <c r="AC8">
-        <v>677323.9163987618</v>
+        <v>563279.1104403567</v>
+      </c>
+      <c r="AP8">
+        <v>1496550</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:48">
       <c r="A9">
-        <v>1045.789027497587</v>
+        <v>1272.016335515292</v>
       </c>
       <c r="B9">
-        <v>1045.789027497587</v>
+        <v>1272.016335515292</v>
       </c>
       <c r="C9">
-        <v>1045.789027497587</v>
+        <v>1272.016335515292</v>
       </c>
       <c r="E9">
-        <v>868.7210049725911</v>
+        <v>1060.614195307548</v>
       </c>
       <c r="F9">
-        <v>1037.203106023325</v>
+        <v>1263.430414041073</v>
       </c>
       <c r="G9">
-        <v>971.869373765668</v>
+        <v>1182.151353738504</v>
       </c>
       <c r="O9">
-        <v>0.2619749988464706</v>
+        <v>0.2390631590330464</v>
       </c>
       <c r="P9">
-        <v>0.2906677430091553</v>
+        <v>0.2607125690243403</v>
       </c>
       <c r="Q9">
-        <v>0.2729172112944714</v>
+        <v>0.2456874127865782</v>
       </c>
       <c r="W9">
-        <v>2845331.407642642</v>
+        <v>3451901.264490127</v>
       </c>
       <c r="X9">
-        <v>2845331.407642642</v>
+        <v>3451901.264490127</v>
       </c>
       <c r="Y9">
-        <v>2845331.407642642</v>
+        <v>3451901.264490127</v>
       </c>
       <c r="AA9">
-        <v>745405.6922350078</v>
+        <v>825222.4209591771</v>
       </c>
       <c r="AB9">
-        <v>827046.0583725497</v>
+        <v>899954.0466835895</v>
       </c>
       <c r="AC9">
-        <v>776539.9129824026</v>
+        <v>848088.6908672971</v>
+      </c>
+      <c r="AP9">
+        <v>1509200</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:48">
       <c r="A10">
-        <v>1209.96066169724</v>
+        <v>1078.251977156045</v>
       </c>
       <c r="B10">
-        <v>1209.96066169724</v>
+        <v>1078.251977156045</v>
       </c>
       <c r="C10">
-        <v>1209.96066169724</v>
+        <v>1078.251977156045</v>
       </c>
       <c r="E10">
-        <v>1092.870402738315</v>
+        <v>977.5664558012746</v>
       </c>
       <c r="F10">
-        <v>1201.374740223052</v>
+        <v>1069.666055681818</v>
       </c>
       <c r="G10">
-        <v>1180.299358056475</v>
+        <v>1053.709503296332</v>
       </c>
       <c r="O10">
-        <v>0.2256922204920729</v>
+        <v>0.2270804407036524</v>
       </c>
       <c r="P10">
-        <v>0.2507050586331517</v>
+        <v>0.2539225961659571</v>
       </c>
       <c r="Q10">
-        <v>0.2338643688021705</v>
+        <v>0.2338140661864676</v>
       </c>
       <c r="W10">
-        <v>3162491.129225561</v>
+        <v>2741967.487381455</v>
       </c>
       <c r="X10">
-        <v>3162491.129225561</v>
+        <v>2741967.487381455</v>
       </c>
       <c r="Y10">
-        <v>3162491.129225561</v>
+        <v>2741967.487381455</v>
       </c>
       <c r="AA10">
-        <v>713749.6452413999</v>
+        <v>622647.1854296675</v>
       </c>
       <c r="AB10">
-        <v>792852.5239793163</v>
+        <v>696247.5029985455</v>
       </c>
       <c r="AC10">
-        <v>739593.9917787992</v>
+        <v>641110.5675757498</v>
+      </c>
+      <c r="AP10">
+        <v>1513600</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
